--- a/Practica1/Practica1.xlsx
+++ b/Practica1/Practica1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\2025\Auxiliatura\Orga\EJEMPLOSORGA1S2025\Practica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taro\Documents\2S2025\Auxiliatura\ORGA_2S2025_C\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F947B-5803-4DDB-ABFE-4E86C6061484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB32EB-780B-43C6-94DE-AFC188E69D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>Entradas</t>
   </si>
@@ -296,6 +296,24 @@
   </si>
   <si>
     <t>(WXY'Z)+(WXYZ')+(W'X'YZ')</t>
+  </si>
+  <si>
+    <t>(0,0)(0,0)+(0,0)(0,1)</t>
+  </si>
+  <si>
+    <t>W'X'Y'Z'+W'X'Y'Z</t>
+  </si>
+  <si>
+    <t>W'X'Y'</t>
+  </si>
+  <si>
+    <t>(0L1)(1,0)</t>
+  </si>
+  <si>
+    <t>W'+X'+Y+Z'</t>
+  </si>
+  <si>
+    <t>(W'+X'+Y+Z')(W'+X+Y+Z')</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,6 +632,39 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,64 +673,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,32 +1037,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A366281-D350-405C-ADA4-B50600092A55}">
-  <dimension ref="B2:P41"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView topLeftCell="A19" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
       <c r="O2" t="s">
         <v>16</v>
       </c>
@@ -1791,22 +1814,22 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30" t="s">
+      <c r="C24" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="32"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
       <c r="O24" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1918,7 @@
       <c r="O26" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="46" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1942,7 +1965,7 @@
       <c r="O27">
         <v>4</v>
       </c>
-      <c r="P27" s="37"/>
+      <c r="P27" s="46"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -1963,7 +1986,9 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1973,7 +1998,7 @@
       <c r="O28" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="37"/>
+      <c r="P28" s="46"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -1994,7 +2019,9 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2004,7 +2031,7 @@
       <c r="O29">
         <v>8</v>
       </c>
-      <c r="P29" s="37"/>
+      <c r="P29" s="46"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -2025,7 +2052,9 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2035,7 +2064,7 @@
       <c r="O30" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="37"/>
+      <c r="P30" s="46"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -2056,7 +2085,9 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2066,7 +2097,7 @@
       <c r="O31">
         <v>9</v>
       </c>
-      <c r="P31" s="37"/>
+      <c r="P31" s="46"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
@@ -2087,7 +2118,9 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2097,7 +2130,7 @@
       <c r="O32" t="s">
         <v>59</v>
       </c>
-      <c r="P32" s="37"/>
+      <c r="P32" s="46"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
@@ -2118,7 +2151,9 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2128,7 +2163,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="P33" s="37"/>
+      <c r="P33" s="46"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -2149,7 +2184,9 @@
       <c r="G34" s="2">
         <v>1</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2159,7 +2196,7 @@
       <c r="O34" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="37" t="s">
+      <c r="P34" s="46" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2182,7 +2219,9 @@
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2192,7 +2231,7 @@
       <c r="O35">
         <v>4</v>
       </c>
-      <c r="P35" s="37"/>
+      <c r="P35" s="46"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
@@ -2213,7 +2252,9 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2223,7 +2264,7 @@
       <c r="O36" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="37"/>
+      <c r="P36" s="46"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
@@ -2244,7 +2285,9 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2254,7 +2297,7 @@
       <c r="O37">
         <v>8</v>
       </c>
-      <c r="P37" s="37"/>
+      <c r="P37" s="46"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -2275,7 +2318,9 @@
       <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2285,7 +2330,7 @@
       <c r="O38" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="37"/>
+      <c r="P38" s="46"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -2306,7 +2351,9 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2316,7 +2363,7 @@
       <c r="O39">
         <v>9</v>
       </c>
-      <c r="P39" s="37"/>
+      <c r="P39" s="46"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
@@ -2337,7 +2384,9 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2347,7 +2396,7 @@
       <c r="O40" t="s">
         <v>59</v>
       </c>
-      <c r="P40" s="37"/>
+      <c r="P40" s="46"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -2368,7 +2417,9 @@
       <c r="G41" s="2">
         <v>1</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2378,7 +2429,12 @@
       <c r="O41">
         <v>2</v>
       </c>
-      <c r="P41" s="37"/>
+      <c r="P41" s="46"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2397,20 +2453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222B1F1-1E9D-47E5-8B50-7CFB02FF7A54}">
   <dimension ref="B2:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="152" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2814,14 +2870,14 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -2842,13 +2898,13 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -2981,12 +3037,12 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
       <c r="F28" t="s">
         <v>48</v>
       </c>
@@ -3007,23 +3063,23 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="17" t="s">
         <v>31</v>
       </c>
@@ -3037,22 +3093,22 @@
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
+      <c r="C41" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="4" t="s">
         <v>15</v>
       </c>
@@ -3099,34 +3155,34 @@
       <c r="B43" s="2">
         <v>0</v>
       </c>
-      <c r="C43" s="38">
-        <v>0</v>
-      </c>
-      <c r="D43" s="38">
-        <v>0</v>
-      </c>
-      <c r="E43" s="38">
-        <v>0</v>
-      </c>
-      <c r="F43" s="38">
-        <v>0</v>
-      </c>
-      <c r="G43" s="38">
+      <c r="C43" s="30">
+        <v>0</v>
+      </c>
+      <c r="D43" s="30">
+        <v>0</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="30">
+        <v>0</v>
+      </c>
+      <c r="G43" s="30">
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="41">
-        <v>1</v>
-      </c>
-      <c r="L43" s="44">
-        <v>1</v>
-      </c>
-      <c r="M43" s="40">
+      <c r="J43" s="32">
+        <v>1</v>
+      </c>
+      <c r="K43" s="31">
+        <v>1</v>
+      </c>
+      <c r="L43" s="33">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3149,19 +3205,19 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="47">
-        <v>1</v>
-      </c>
-      <c r="K44" s="47">
-        <v>1</v>
-      </c>
-      <c r="L44" s="48">
-        <v>1</v>
-      </c>
-      <c r="M44" s="46">
+      <c r="J44" s="35">
+        <v>1</v>
+      </c>
+      <c r="K44" s="35">
+        <v>1</v>
+      </c>
+      <c r="L44" s="36">
+        <v>1</v>
+      </c>
+      <c r="M44" s="34">
         <v>1</v>
       </c>
     </row>
@@ -3169,19 +3225,19 @@
       <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="38">
-        <v>0</v>
-      </c>
-      <c r="D45" s="38">
-        <v>0</v>
-      </c>
-      <c r="E45" s="38">
-        <v>1</v>
-      </c>
-      <c r="F45" s="38">
-        <v>0</v>
-      </c>
-      <c r="G45" s="38">
+      <c r="C45" s="30">
+        <v>0</v>
+      </c>
+      <c r="D45" s="30">
+        <v>0</v>
+      </c>
+      <c r="E45" s="30">
+        <v>1</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0</v>
+      </c>
+      <c r="G45" s="30">
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -3190,13 +3246,13 @@
       <c r="J45" s="15">
         <v>1</v>
       </c>
-      <c r="K45" s="40">
-        <v>0</v>
-      </c>
-      <c r="L45" s="44">
-        <v>1</v>
-      </c>
-      <c r="M45" s="40">
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="33">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3204,34 +3260,34 @@
       <c r="B46" s="2">
         <v>3</v>
       </c>
-      <c r="C46" s="38">
-        <v>0</v>
-      </c>
-      <c r="D46" s="38">
-        <v>0</v>
-      </c>
-      <c r="E46" s="38">
-        <v>1</v>
-      </c>
-      <c r="F46" s="38">
-        <v>1</v>
-      </c>
-      <c r="G46" s="38">
-        <v>1</v>
-      </c>
-      <c r="I46" s="50" t="s">
+      <c r="C46" s="30">
+        <v>0</v>
+      </c>
+      <c r="D46" s="30">
+        <v>0</v>
+      </c>
+      <c r="E46" s="30">
+        <v>1</v>
+      </c>
+      <c r="F46" s="30">
+        <v>1</v>
+      </c>
+      <c r="G46" s="30">
+        <v>1</v>
+      </c>
+      <c r="I46" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="51">
-        <v>1</v>
-      </c>
-      <c r="K46" s="50">
-        <v>1</v>
-      </c>
-      <c r="L46" s="50">
-        <v>1</v>
-      </c>
-      <c r="M46" s="50">
+      <c r="J46" s="38">
+        <v>1</v>
+      </c>
+      <c r="K46" s="37">
+        <v>1</v>
+      </c>
+      <c r="L46" s="37">
+        <v>1</v>
+      </c>
+      <c r="M46" s="37">
         <v>1</v>
       </c>
     </row>
@@ -3239,19 +3295,19 @@
       <c r="B47" s="2">
         <v>4</v>
       </c>
-      <c r="C47" s="38">
-        <v>0</v>
-      </c>
-      <c r="D47" s="38">
-        <v>1</v>
-      </c>
-      <c r="E47" s="38">
-        <v>0</v>
-      </c>
-      <c r="F47" s="38">
-        <v>0</v>
-      </c>
-      <c r="G47" s="38">
+      <c r="C47" s="30">
+        <v>0</v>
+      </c>
+      <c r="D47" s="30">
+        <v>1</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47" s="30">
+        <v>0</v>
+      </c>
+      <c r="G47" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3259,121 +3315,121 @@
       <c r="B48" s="2">
         <v>5</v>
       </c>
-      <c r="C48" s="38">
-        <v>0</v>
-      </c>
-      <c r="D48" s="38">
-        <v>1</v>
-      </c>
-      <c r="E48" s="38">
-        <v>0</v>
-      </c>
-      <c r="F48" s="38">
-        <v>1</v>
-      </c>
-      <c r="G48" s="38">
-        <v>1</v>
-      </c>
-      <c r="I48" s="42" t="s">
+      <c r="C48" s="30">
+        <v>0</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+      <c r="E48" s="30">
+        <v>0</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1</v>
+      </c>
+      <c r="G48" s="30">
+        <v>1</v>
+      </c>
+      <c r="I48" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="N48" s="49" t="s">
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="N48" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="38">
-        <v>0</v>
-      </c>
-      <c r="D49" s="38">
-        <v>1</v>
-      </c>
-      <c r="E49" s="38">
-        <v>1</v>
-      </c>
-      <c r="F49" s="38">
-        <v>0</v>
-      </c>
-      <c r="G49" s="38">
-        <v>0</v>
-      </c>
-      <c r="I49" s="33" t="s">
+      <c r="C49" s="30">
+        <v>0</v>
+      </c>
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+      <c r="E49" s="30">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30">
+        <v>0</v>
+      </c>
+      <c r="G49" s="30">
+        <v>0</v>
+      </c>
+      <c r="I49" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="N49" s="33" t="s">
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="N49" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>7</v>
       </c>
-      <c r="C50" s="38">
-        <v>0</v>
-      </c>
-      <c r="D50" s="38">
-        <v>1</v>
-      </c>
-      <c r="E50" s="38">
-        <v>1</v>
-      </c>
-      <c r="F50" s="38">
-        <v>1</v>
-      </c>
-      <c r="G50" s="38">
-        <v>1</v>
-      </c>
-      <c r="I50" s="33" t="s">
+      <c r="C50" s="30">
+        <v>0</v>
+      </c>
+      <c r="D50" s="30">
+        <v>1</v>
+      </c>
+      <c r="E50" s="30">
+        <v>1</v>
+      </c>
+      <c r="F50" s="30">
+        <v>1</v>
+      </c>
+      <c r="G50" s="30">
+        <v>1</v>
+      </c>
+      <c r="I50" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>8</v>
       </c>
-      <c r="C51" s="38">
-        <v>1</v>
-      </c>
-      <c r="D51" s="38">
-        <v>0</v>
-      </c>
-      <c r="E51" s="38">
-        <v>0</v>
-      </c>
-      <c r="F51" s="38">
-        <v>0</v>
-      </c>
-      <c r="G51" s="38">
-        <v>1</v>
-      </c>
-      <c r="I51" s="33" t="s">
+      <c r="C51" s="30">
+        <v>1</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51" s="30">
+        <v>0</v>
+      </c>
+      <c r="G51" s="30">
+        <v>1</v>
+      </c>
+      <c r="I51" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
@@ -3394,132 +3450,132 @@
       <c r="G52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="N52" s="52" t="s">
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="N52" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>10</v>
       </c>
-      <c r="C53" s="38">
-        <v>1</v>
-      </c>
-      <c r="D53" s="38">
-        <v>0</v>
-      </c>
-      <c r="E53" s="38">
-        <v>1</v>
-      </c>
-      <c r="F53" s="38">
-        <v>0</v>
-      </c>
-      <c r="G53" s="38">
-        <v>1</v>
-      </c>
-      <c r="I53" s="33" t="s">
+      <c r="C53" s="30">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30">
+        <v>0</v>
+      </c>
+      <c r="E53" s="30">
+        <v>1</v>
+      </c>
+      <c r="F53" s="30">
+        <v>0</v>
+      </c>
+      <c r="G53" s="30">
+        <v>1</v>
+      </c>
+      <c r="I53" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="N53" s="33" t="s">
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="N53" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>11</v>
       </c>
-      <c r="C54" s="38">
-        <v>1</v>
-      </c>
-      <c r="D54" s="38">
-        <v>0</v>
-      </c>
-      <c r="E54" s="38">
-        <v>1</v>
-      </c>
-      <c r="F54" s="38">
-        <v>1</v>
-      </c>
-      <c r="G54" s="38">
-        <v>1</v>
-      </c>
-      <c r="I54" s="33" t="s">
+      <c r="C54" s="30">
+        <v>1</v>
+      </c>
+      <c r="D54" s="30">
+        <v>0</v>
+      </c>
+      <c r="E54" s="30">
+        <v>1</v>
+      </c>
+      <c r="F54" s="30">
+        <v>1</v>
+      </c>
+      <c r="G54" s="30">
+        <v>1</v>
+      </c>
+      <c r="I54" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>12</v>
       </c>
-      <c r="C55" s="38">
-        <v>1</v>
-      </c>
-      <c r="D55" s="38">
-        <v>1</v>
-      </c>
-      <c r="E55" s="38">
-        <v>0</v>
-      </c>
-      <c r="F55" s="38">
-        <v>0</v>
-      </c>
-      <c r="G55" s="38">
-        <v>1</v>
-      </c>
-      <c r="I55" s="45" t="s">
+      <c r="C55" s="30">
+        <v>1</v>
+      </c>
+      <c r="D55" s="30">
+        <v>1</v>
+      </c>
+      <c r="E55" s="30">
+        <v>0</v>
+      </c>
+      <c r="F55" s="30">
+        <v>0</v>
+      </c>
+      <c r="G55" s="30">
+        <v>1</v>
+      </c>
+      <c r="I55" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>13</v>
       </c>
-      <c r="C56" s="38">
-        <v>1</v>
-      </c>
-      <c r="D56" s="38">
-        <v>1</v>
-      </c>
-      <c r="E56" s="38">
-        <v>0</v>
-      </c>
-      <c r="F56" s="38">
-        <v>1</v>
-      </c>
-      <c r="G56" s="38">
-        <v>1</v>
-      </c>
-      <c r="I56" s="33" t="s">
+      <c r="C56" s="30">
+        <v>1</v>
+      </c>
+      <c r="D56" s="30">
+        <v>1</v>
+      </c>
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+      <c r="F56" s="30">
+        <v>1</v>
+      </c>
+      <c r="G56" s="30">
+        <v>1</v>
+      </c>
+      <c r="I56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
@@ -3540,38 +3596,38 @@
       <c r="G57" s="2">
         <v>0</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>15</v>
       </c>
-      <c r="C58" s="38">
-        <v>1</v>
-      </c>
-      <c r="D58" s="38">
-        <v>1</v>
-      </c>
-      <c r="E58" s="38">
-        <v>1</v>
-      </c>
-      <c r="F58" s="38">
-        <v>1</v>
-      </c>
-      <c r="G58" s="38">
-        <v>1</v>
-      </c>
-      <c r="K58" s="59" t="s">
+      <c r="C58" s="30">
+        <v>1</v>
+      </c>
+      <c r="D58" s="30">
+        <v>1</v>
+      </c>
+      <c r="E58" s="30">
+        <v>1</v>
+      </c>
+      <c r="F58" s="30">
+        <v>1</v>
+      </c>
+      <c r="G58" s="30">
+        <v>1</v>
+      </c>
+      <c r="K58" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59" t="s">
+      <c r="L58" s="45"/>
+      <c r="M58" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="N58" s="59"/>
+      <c r="N58" s="45"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -3596,75 +3652,75 @@
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="53">
-        <v>1</v>
-      </c>
-      <c r="D63" s="53">
-        <v>1</v>
-      </c>
-      <c r="E63" s="40">
-        <v>1</v>
-      </c>
-      <c r="F63" s="55">
+      <c r="C63" s="39">
+        <v>1</v>
+      </c>
+      <c r="D63" s="39">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="53">
-        <v>1</v>
-      </c>
-      <c r="D64" s="53">
-        <v>1</v>
-      </c>
-      <c r="E64" s="39">
-        <v>1</v>
-      </c>
-      <c r="F64" s="40">
+      <c r="C64" s="39">
+        <v>1</v>
+      </c>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="39">
-        <v>1</v>
-      </c>
-      <c r="D65" s="54">
-        <v>0</v>
-      </c>
-      <c r="E65" s="40">
-        <v>1</v>
-      </c>
-      <c r="F65" s="58">
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="40">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="39">
-        <v>1</v>
-      </c>
-      <c r="D66" s="40">
-        <v>1</v>
-      </c>
-      <c r="E66" s="40">
-        <v>1</v>
-      </c>
-      <c r="F66" s="40">
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="45" t="s">
         <v>77</v>
       </c>
       <c r="C68" t="s">
@@ -3672,7 +3728,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="43" t="s">
         <v>78</v>
       </c>
       <c r="C69" t="s">
@@ -3680,7 +3736,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C70" t="s">
@@ -3688,17 +3744,25 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59" t="s">
+      <c r="C72" s="45"/>
+      <c r="D72" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="59"/>
+      <c r="E72" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I16:N16"/>
     <mergeCell ref="I54:L54"/>
     <mergeCell ref="I55:L55"/>
     <mergeCell ref="I56:L56"/>
@@ -3715,14 +3779,6 @@
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I50:L50"/>
     <mergeCell ref="I51:L51"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3730,12 +3786,568 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D910EC2A-9489-458A-825D-523FDC573EEE}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C14" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="61">
+        <v>1</v>
+      </c>
+      <c r="K4" s="61">
+        <v>1</v>
+      </c>
+      <c r="L4" s="59">
+        <v>1</v>
+      </c>
+      <c r="M4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0</v>
+      </c>
+      <c r="K5" s="61">
+        <v>1</v>
+      </c>
+      <c r="L5" s="62">
+        <v>1</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="62">
+        <v>1</v>
+      </c>
+      <c r="K6" s="59">
+        <v>1</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59">
+        <v>1</v>
+      </c>
+      <c r="L7" s="59">
+        <v>1</v>
+      </c>
+      <c r="M7" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="61">
+        <v>1</v>
+      </c>
+      <c r="K18" s="61">
+        <v>1</v>
+      </c>
+      <c r="L18" s="59">
+        <v>1</v>
+      </c>
+      <c r="M18" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="61">
+        <v>0</v>
+      </c>
+      <c r="K19" s="61">
+        <v>1</v>
+      </c>
+      <c r="L19" s="62">
+        <v>1</v>
+      </c>
+      <c r="M19" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="62">
+        <v>1</v>
+      </c>
+      <c r="K20" s="59">
+        <v>1</v>
+      </c>
+      <c r="L20" s="59">
+        <v>0</v>
+      </c>
+      <c r="M20" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="62">
+        <v>0</v>
+      </c>
+      <c r="K21" s="59">
+        <v>1</v>
+      </c>
+      <c r="L21" s="59">
+        <v>1</v>
+      </c>
+      <c r="M21" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Practica1/Practica1.xlsx
+++ b/Practica1/Practica1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\2025\Auxiliatura\Segunda\ORGA_2S2025_C\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32CEBB-3614-443D-B732-9B31B95FF5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD8FBFB-EB98-4567-908D-B2E39F98B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{DCEB59B2-2147-42C9-800F-10DC07A93388}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
   <si>
     <t>Entradas</t>
   </si>
@@ -344,13 +344,19 @@
   </si>
   <si>
     <t>74ls04</t>
+  </si>
+  <si>
+    <t>Respuesta final correcta: (X + Y + Z')(X' + Y' + Z)</t>
+  </si>
+  <si>
+    <t>Respuesta final correcta: X'Z' + YZ + XY'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,8 +387,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,8 +485,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -601,11 +619,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,11 +713,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -701,15 +725,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -724,8 +739,40 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,22 +1118,22 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="47" t="s">
+      <c r="C2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
       <c r="O2" t="s">
         <v>16</v>
       </c>
@@ -1838,22 +1885,22 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="47" t="s">
+      <c r="C24" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="46"/>
       <c r="O24" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +1989,7 @@
       <c r="O26" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="46" t="s">
+      <c r="P26" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1989,7 +2036,7 @@
       <c r="O27">
         <v>4</v>
       </c>
-      <c r="P27" s="46"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -2022,7 +2069,7 @@
       <c r="O28" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="46"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -2055,7 +2102,7 @@
       <c r="O29">
         <v>8</v>
       </c>
-      <c r="P29" s="46"/>
+      <c r="P29" s="43"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -2088,7 +2135,7 @@
       <c r="O30" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="46"/>
+      <c r="P30" s="43"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -2121,7 +2168,7 @@
       <c r="O31">
         <v>9</v>
       </c>
-      <c r="P31" s="46"/>
+      <c r="P31" s="43"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
@@ -2154,7 +2201,7 @@
       <c r="O32" t="s">
         <v>59</v>
       </c>
-      <c r="P32" s="46"/>
+      <c r="P32" s="43"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
@@ -2187,7 +2234,7 @@
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="P33" s="46"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -2220,7 +2267,7 @@
       <c r="O34" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="46" t="s">
+      <c r="P34" s="43" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2255,7 +2302,7 @@
       <c r="O35">
         <v>4</v>
       </c>
-      <c r="P35" s="46"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
@@ -2288,7 +2335,7 @@
       <c r="O36" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="46"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
@@ -2321,7 +2368,7 @@
       <c r="O37">
         <v>8</v>
       </c>
-      <c r="P37" s="46"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -2354,7 +2401,7 @@
       <c r="O38" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="46"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
@@ -2387,7 +2434,7 @@
       <c r="O39">
         <v>9</v>
       </c>
-      <c r="P39" s="46"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
@@ -2420,7 +2467,7 @@
       <c r="O40" t="s">
         <v>59</v>
       </c>
-      <c r="P40" s="46"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
@@ -2453,7 +2500,7 @@
       <c r="O41">
         <v>2</v>
       </c>
-      <c r="P41" s="46"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M46">
@@ -2475,22 +2522,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E222B1F1-1E9D-47E5-8B50-7CFB02FF7A54}">
-  <dimension ref="B2:Q72"/>
+  <dimension ref="B2:Q82"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2894,14 +2941,14 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -2922,13 +2969,13 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -3061,12 +3108,12 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" t="s">
         <v>48</v>
       </c>
@@ -3087,23 +3134,23 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="17" t="s">
         <v>31</v>
       </c>
@@ -3117,22 +3164,22 @@
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
+      <c r="C41" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
       <c r="G41" s="4" t="s">
         <v>15</v>
       </c>
@@ -3372,53 +3419,53 @@
       <c r="H48">
         <v>9</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="N48" s="55" t="s">
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="N48" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="30">
-        <v>0</v>
-      </c>
-      <c r="D49" s="30">
-        <v>1</v>
-      </c>
-      <c r="E49" s="30">
-        <v>1</v>
-      </c>
-      <c r="F49" s="30">
-        <v>0</v>
-      </c>
-      <c r="G49" s="30">
+      <c r="C49" s="56">
+        <v>0</v>
+      </c>
+      <c r="D49" s="56">
+        <v>1</v>
+      </c>
+      <c r="E49" s="56">
+        <v>1</v>
+      </c>
+      <c r="F49" s="56">
+        <v>0</v>
+      </c>
+      <c r="G49" s="56">
         <v>0</v>
       </c>
       <c r="H49" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="N49" s="50" t="s">
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="N49" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
@@ -3442,264 +3489,264 @@
       <c r="H50">
         <v>2</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
+      <c r="B51" s="62">
         <v>8</v>
       </c>
-      <c r="C51" s="30">
-        <v>1</v>
-      </c>
-      <c r="D51" s="30">
-        <v>0</v>
-      </c>
-      <c r="E51" s="30">
-        <v>0</v>
-      </c>
-      <c r="F51" s="30">
-        <v>0</v>
-      </c>
-      <c r="G51" s="30">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="C51" s="64">
+        <v>1</v>
+      </c>
+      <c r="D51" s="64">
+        <v>0</v>
+      </c>
+      <c r="E51" s="64">
+        <v>0</v>
+      </c>
+      <c r="F51" s="64">
+        <v>0</v>
+      </c>
+      <c r="G51" s="64">
+        <v>1</v>
+      </c>
+      <c r="H51" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="50" t="s">
+      <c r="I51" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
+      <c r="B52" s="62">
         <v>9</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52">
+      <c r="C52" s="62">
+        <v>1</v>
+      </c>
+      <c r="D52" s="62">
+        <v>0</v>
+      </c>
+      <c r="E52" s="62">
+        <v>0</v>
+      </c>
+      <c r="F52" s="62">
+        <v>1</v>
+      </c>
+      <c r="G52" s="62">
+        <v>0</v>
+      </c>
+      <c r="H52" s="63">
         <v>4</v>
       </c>
-      <c r="I52" s="53" t="s">
+      <c r="I52" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="N52" s="56" t="s">
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="N52" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
+      <c r="B53" s="62">
         <v>10</v>
       </c>
-      <c r="C53" s="30">
-        <v>1</v>
-      </c>
-      <c r="D53" s="30">
-        <v>0</v>
-      </c>
-      <c r="E53" s="30">
-        <v>1</v>
-      </c>
-      <c r="F53" s="30">
-        <v>0</v>
-      </c>
-      <c r="G53" s="30">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="C53" s="64">
+        <v>1</v>
+      </c>
+      <c r="D53" s="64">
+        <v>0</v>
+      </c>
+      <c r="E53" s="64">
+        <v>1</v>
+      </c>
+      <c r="F53" s="64">
+        <v>0</v>
+      </c>
+      <c r="G53" s="64">
+        <v>1</v>
+      </c>
+      <c r="H53" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="N53" s="50" t="s">
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="N53" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
+      <c r="B54" s="62">
         <v>11</v>
       </c>
-      <c r="C54" s="30">
-        <v>1</v>
-      </c>
-      <c r="D54" s="30">
-        <v>0</v>
-      </c>
-      <c r="E54" s="30">
-        <v>1</v>
-      </c>
-      <c r="F54" s="30">
-        <v>1</v>
-      </c>
-      <c r="G54" s="30">
-        <v>1</v>
-      </c>
-      <c r="H54">
+      <c r="C54" s="64">
+        <v>1</v>
+      </c>
+      <c r="D54" s="64">
+        <v>0</v>
+      </c>
+      <c r="E54" s="64">
+        <v>1</v>
+      </c>
+      <c r="F54" s="64">
+        <v>1</v>
+      </c>
+      <c r="G54" s="64">
+        <v>1</v>
+      </c>
+      <c r="H54" s="63">
         <v>8</v>
       </c>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
+      <c r="B55" s="62">
         <v>12</v>
       </c>
-      <c r="C55" s="30">
-        <v>1</v>
-      </c>
-      <c r="D55" s="30">
-        <v>1</v>
-      </c>
-      <c r="E55" s="30">
-        <v>0</v>
-      </c>
-      <c r="F55" s="30">
-        <v>0</v>
-      </c>
-      <c r="G55" s="30">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="C55" s="64">
+        <v>1</v>
+      </c>
+      <c r="D55" s="64">
+        <v>1</v>
+      </c>
+      <c r="E55" s="64">
+        <v>0</v>
+      </c>
+      <c r="F55" s="64">
+        <v>0</v>
+      </c>
+      <c r="G55" s="64">
+        <v>1</v>
+      </c>
+      <c r="H55" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="I55" s="54" t="s">
+      <c r="I55" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
+      <c r="B56" s="62">
         <v>13</v>
       </c>
-      <c r="C56" s="30">
-        <v>1</v>
-      </c>
-      <c r="D56" s="30">
-        <v>1</v>
-      </c>
-      <c r="E56" s="30">
-        <v>0</v>
-      </c>
-      <c r="F56" s="30">
-        <v>1</v>
-      </c>
-      <c r="G56" s="30">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="C56" s="64">
+        <v>1</v>
+      </c>
+      <c r="D56" s="64">
+        <v>1</v>
+      </c>
+      <c r="E56" s="64">
+        <v>0</v>
+      </c>
+      <c r="F56" s="64">
+        <v>1</v>
+      </c>
+      <c r="G56" s="64">
+        <v>1</v>
+      </c>
+      <c r="H56" s="63">
         <v>9</v>
       </c>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
+      <c r="B57" s="62">
         <v>14</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="C57" s="62">
+        <v>1</v>
+      </c>
+      <c r="D57" s="62">
+        <v>1</v>
+      </c>
+      <c r="E57" s="62">
+        <v>1</v>
+      </c>
+      <c r="F57" s="62">
+        <v>0</v>
+      </c>
+      <c r="G57" s="62">
+        <v>0</v>
+      </c>
+      <c r="H57" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
+      <c r="B58" s="62">
         <v>15</v>
       </c>
-      <c r="C58" s="30">
-        <v>1</v>
-      </c>
-      <c r="D58" s="30">
-        <v>1</v>
-      </c>
-      <c r="E58" s="30">
-        <v>1</v>
-      </c>
-      <c r="F58" s="30">
-        <v>1</v>
-      </c>
-      <c r="G58" s="30">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="C58" s="64">
+        <v>1</v>
+      </c>
+      <c r="D58" s="64">
+        <v>1</v>
+      </c>
+      <c r="E58" s="64">
+        <v>1</v>
+      </c>
+      <c r="F58" s="64">
+        <v>1</v>
+      </c>
+      <c r="G58" s="64">
+        <v>1</v>
+      </c>
+      <c r="H58" s="63">
         <v>2</v>
       </c>
-      <c r="K58" s="45" t="s">
+      <c r="K58" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45" t="s">
+      <c r="L58" s="42"/>
+      <c r="M58" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="N58" s="45"/>
+      <c r="N58" s="42"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -3733,16 +3780,16 @@
       <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="39">
-        <v>1</v>
-      </c>
-      <c r="D63" s="39">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="41">
+      <c r="C63" s="58">
+        <v>1</v>
+      </c>
+      <c r="D63" s="58">
+        <v>1</v>
+      </c>
+      <c r="E63" s="57">
+        <v>1</v>
+      </c>
+      <c r="F63" s="57">
         <v>0</v>
       </c>
       <c r="J63" t="s">
@@ -3756,16 +3803,16 @@
       <c r="B64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="39">
-        <v>1</v>
-      </c>
-      <c r="D64" s="39">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="C64" s="58">
+        <v>1</v>
+      </c>
+      <c r="D64" s="58">
+        <v>1</v>
+      </c>
+      <c r="E64" s="59">
+        <v>1</v>
+      </c>
+      <c r="F64" s="57">
         <v>1</v>
       </c>
     </row>
@@ -3773,16 +3820,16 @@
       <c r="B65" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="40">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="44">
+      <c r="C65" s="59">
+        <v>1</v>
+      </c>
+      <c r="D65" s="57">
+        <v>1</v>
+      </c>
+      <c r="E65" s="57">
+        <v>1</v>
+      </c>
+      <c r="F65" s="57">
         <v>0</v>
       </c>
     </row>
@@ -3790,21 +3837,21 @@
       <c r="B66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
+      <c r="C66" s="59">
+        <v>1</v>
+      </c>
+      <c r="D66" s="57">
+        <v>1</v>
+      </c>
+      <c r="E66" s="57">
+        <v>1</v>
+      </c>
+      <c r="F66" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C68" t="s">
@@ -3812,7 +3859,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C69" t="s">
@@ -3820,7 +3867,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C70" t="s">
@@ -3828,17 +3875,136 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45" t="s">
+      <c r="C72" s="42"/>
+      <c r="D72" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="45"/>
+      <c r="E72" s="42"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="58">
+        <v>1</v>
+      </c>
+      <c r="D77" s="58">
+        <v>0</v>
+      </c>
+      <c r="E77" s="57">
+        <v>1</v>
+      </c>
+      <c r="F77" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="58">
+        <v>1</v>
+      </c>
+      <c r="D78" s="58">
+        <v>1</v>
+      </c>
+      <c r="E78" s="59">
+        <v>1</v>
+      </c>
+      <c r="F78" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="58">
+        <v>1</v>
+      </c>
+      <c r="D79" s="58">
+        <v>1</v>
+      </c>
+      <c r="E79" s="57">
+        <v>1</v>
+      </c>
+      <c r="F79" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="58">
+        <v>1</v>
+      </c>
+      <c r="D80" s="58">
+        <v>0</v>
+      </c>
+      <c r="E80" s="59">
+        <v>1</v>
+      </c>
+      <c r="F80" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I16:N16"/>
     <mergeCell ref="I54:L54"/>
     <mergeCell ref="I55:L55"/>
     <mergeCell ref="I56:L56"/>
@@ -3855,14 +4021,6 @@
     <mergeCell ref="I49:L49"/>
     <mergeCell ref="I50:L50"/>
     <mergeCell ref="I51:L51"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3872,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D910EC2A-9489-458A-825D-523FDC573EEE}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I26" sqref="I26:M26"/>
     </sheetView>
   </sheetViews>
@@ -3880,12 +4038,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4176,12 +4334,12 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -4427,13 +4585,13 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
